--- a/ドキュメント/(添付)Next.js ショッピングサイトデモ 作業ログ.xlsx
+++ b/ドキュメント/(添付)Next.js ショッピングサイトデモ 作業ログ.xlsx
@@ -7559,8 +7559,8 @@
   </sheetPr>
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -7700,7 +7700,9 @@
       <c r="D11" s="57">
         <v>1</v>
       </c>
-      <c r="E11" s="54"/>
+      <c r="E11" s="54">
+        <v>44132</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="12.75">
       <c r="C12" s="56" t="s">
@@ -7709,7 +7711,9 @@
       <c r="D12" s="57">
         <v>1</v>
       </c>
-      <c r="E12" s="54"/>
+      <c r="E12" s="54">
+        <v>44132</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="13.5">
       <c r="B13" s="41" t="s">
@@ -7726,7 +7730,9 @@
       <c r="D14" s="57">
         <v>1</v>
       </c>
-      <c r="E14" s="54"/>
+      <c r="E14" s="54">
+        <v>44132</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="12.75">
       <c r="C15" s="56" t="s">
@@ -7735,7 +7741,9 @@
       <c r="D15" s="57">
         <v>1</v>
       </c>
-      <c r="E15" s="54"/>
+      <c r="E15" s="54">
+        <v>44132</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="12.75">
       <c r="C16" s="56" t="s">
@@ -7744,7 +7752,9 @@
       <c r="D16" s="57">
         <v>1</v>
       </c>
-      <c r="E16" s="54"/>
+      <c r="E16" s="54">
+        <v>44132</v>
+      </c>
     </row>
     <row r="17" spans="2:5" ht="12.75">
       <c r="C17" s="56" t="s">
@@ -7753,7 +7763,9 @@
       <c r="D17" s="57">
         <v>1</v>
       </c>
-      <c r="E17" s="54"/>
+      <c r="E17" s="54">
+        <v>44132</v>
+      </c>
     </row>
     <row r="18" spans="2:5" ht="12.75">
       <c r="B18" s="48"/>
@@ -7763,7 +7775,9 @@
       <c r="D18" s="57">
         <v>1</v>
       </c>
-      <c r="E18" s="54"/>
+      <c r="E18" s="54">
+        <v>44132</v>
+      </c>
     </row>
     <row r="19" spans="2:5" ht="13.5">
       <c r="B19" s="41" t="s">
@@ -7780,7 +7794,7 @@
       <c r="D20" s="57">
         <v>1</v>
       </c>
-      <c r="E20" s="58"/>
+      <c r="E20" s="54"/>
     </row>
     <row r="21" spans="2:5" ht="12.75">
       <c r="C21" s="56" t="s">
@@ -8212,11 +8226,11 @@
       </c>
       <c r="E70" s="48">
         <f>COUNTA(E2:E68)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F70" s="60">
         <f>E70/D70</f>
-        <v>0.10416666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="71" spans="2:6" ht="12.75">

--- a/ドキュメント/(添付)Next.js ショッピングサイトデモ 作業ログ.xlsx
+++ b/ドキュメント/(添付)Next.js ショッピングサイトデモ 作業ログ.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
   <si>
     <t>進捗</t>
   </si>
@@ -525,6 +525,20 @@
   </si>
   <si>
     <t>2-5　スタッフ一覧画面を作ろう！</t>
+  </si>
+  <si>
+    <r>
+      <t>81</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ページまでやった</t>
+    </r>
   </si>
   <si>
     <t>2-6　スタッフ情報の修正画面を作ろう！</t>
@@ -7972,7 +7986,7 @@
   <dimension ref="A1:F140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
@@ -8246,7 +8260,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" ht="12.75" spans="3:5">
+    <row r="24" ht="12.75" spans="3:6">
       <c r="C24" s="33" t="s">
         <v>37</v>
       </c>
@@ -8254,10 +8268,13 @@
         <v>1</v>
       </c>
       <c r="E24" s="35"/>
-    </row>
-    <row r="25" ht="12.75" spans="3:5">
+      <c r="F24" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
       <c r="C25" s="33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D25" s="34">
         <v>1</v>
@@ -8266,7 +8283,7 @@
     </row>
     <row r="26" ht="12.75" spans="3:5">
       <c r="C26" s="33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D26" s="34">
         <v>1</v>
@@ -8275,7 +8292,7 @@
     </row>
     <row r="27" ht="12.75" spans="3:5">
       <c r="C27" s="33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D27" s="34">
         <v>1</v>
@@ -8284,7 +8301,7 @@
     </row>
     <row r="28" ht="13.5" spans="2:5">
       <c r="B28" s="32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" s="36"/>
       <c r="D28" s="29"/>
@@ -8292,7 +8309,7 @@
     </row>
     <row r="29" ht="12.75" spans="3:5">
       <c r="C29" s="33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D29" s="34">
         <v>1</v>
@@ -8301,7 +8318,7 @@
     </row>
     <row r="30" ht="12.75" spans="3:5">
       <c r="C30" s="33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D30" s="34">
         <v>1</v>
@@ -8310,7 +8327,7 @@
     </row>
     <row r="31" ht="12.75" spans="3:5">
       <c r="C31" s="33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D31" s="34">
         <v>1</v>
@@ -8319,7 +8336,7 @@
     </row>
     <row r="32" ht="13.5" spans="2:5">
       <c r="B32" s="32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" s="36"/>
       <c r="D32" s="34"/>
@@ -8327,7 +8344,7 @@
     </row>
     <row r="33" ht="12.75" spans="3:5">
       <c r="C33" s="33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D33" s="34">
         <v>1</v>
@@ -8336,7 +8353,7 @@
     </row>
     <row r="34" ht="12.75" spans="3:5">
       <c r="C34" s="33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D34" s="34">
         <v>1</v>
@@ -8345,7 +8362,7 @@
     </row>
     <row r="35" ht="12.75" spans="3:5">
       <c r="C35" s="33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D35" s="34">
         <v>1</v>
@@ -8354,7 +8371,7 @@
     </row>
     <row r="36" ht="13.5" spans="2:5">
       <c r="B36" s="32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36" s="36"/>
       <c r="D36" s="34"/>
@@ -8362,7 +8379,7 @@
     </row>
     <row r="37" ht="12.75" spans="3:5">
       <c r="C37" s="33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D37" s="34">
         <v>1</v>
@@ -8371,7 +8388,7 @@
     </row>
     <row r="38" ht="12.75" spans="3:5">
       <c r="C38" s="33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D38" s="34">
         <v>1</v>
@@ -8380,7 +8397,7 @@
     </row>
     <row r="39" ht="12.75" spans="3:5">
       <c r="C39" s="33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D39" s="34">
         <v>1</v>
@@ -8389,7 +8406,7 @@
     </row>
     <row r="40" ht="12.75" spans="3:5">
       <c r="C40" s="33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D40" s="34">
         <v>1</v>
@@ -8398,7 +8415,7 @@
     </row>
     <row r="41" ht="12.75" spans="3:5">
       <c r="C41" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D41" s="34">
         <v>1</v>
@@ -8407,7 +8424,7 @@
     </row>
     <row r="42" ht="13.5" spans="2:5">
       <c r="B42" s="32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42" s="36"/>
       <c r="D42" s="34"/>
@@ -8415,7 +8432,7 @@
     </row>
     <row r="43" ht="12.75" spans="3:5">
       <c r="C43" s="33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D43" s="34">
         <v>1</v>
@@ -8424,7 +8441,7 @@
     </row>
     <row r="44" ht="12.75" spans="3:5">
       <c r="C44" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D44" s="34">
         <v>1</v>
@@ -8433,7 +8450,7 @@
     </row>
     <row r="45" ht="12.75" spans="3:5">
       <c r="C45" s="33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D45" s="34">
         <v>1</v>
@@ -8442,7 +8459,7 @@
     </row>
     <row r="46" ht="12.75" spans="3:5">
       <c r="C46" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D46" s="34">
         <v>1</v>
@@ -8451,7 +8468,7 @@
     </row>
     <row r="47" ht="12.75" spans="3:5">
       <c r="C47" s="33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D47" s="34">
         <v>1</v>
@@ -8460,7 +8477,7 @@
     </row>
     <row r="48" ht="12.75" spans="3:5">
       <c r="C48" s="33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D48" s="34">
         <v>1</v>
@@ -8469,7 +8486,7 @@
     </row>
     <row r="49" ht="12.75" spans="3:5">
       <c r="C49" s="33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D49" s="34">
         <v>1</v>
@@ -8478,7 +8495,7 @@
     </row>
     <row r="50" ht="13.5" spans="2:5">
       <c r="B50" s="32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C50" s="36"/>
       <c r="D50" s="34"/>
@@ -8486,7 +8503,7 @@
     </row>
     <row r="51" ht="12.75" spans="3:5">
       <c r="C51" s="33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D51" s="34">
         <v>1</v>
@@ -8495,7 +8512,7 @@
     </row>
     <row r="52" ht="12.75" spans="3:5">
       <c r="C52" s="33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D52" s="34">
         <v>1</v>
@@ -8504,7 +8521,7 @@
     </row>
     <row r="53" ht="12.75" spans="3:5">
       <c r="C53" s="33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D53" s="34">
         <v>1</v>
@@ -8514,7 +8531,7 @@
     <row r="54" ht="12.75" spans="2:5">
       <c r="B54" s="27"/>
       <c r="C54" s="33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D54" s="34">
         <v>1</v>
@@ -8523,7 +8540,7 @@
     </row>
     <row r="55" ht="12.75" spans="3:5">
       <c r="C55" s="33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D55" s="34">
         <v>1</v>
@@ -8532,7 +8549,7 @@
     </row>
     <row r="56" ht="13.5" spans="2:5">
       <c r="B56" s="32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C56" s="36"/>
       <c r="D56" s="34"/>
@@ -8540,7 +8557,7 @@
     </row>
     <row r="57" ht="12.75" spans="3:5">
       <c r="C57" s="33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D57" s="34">
         <v>1</v>
@@ -8549,7 +8566,7 @@
     </row>
     <row r="58" ht="12.75" spans="3:5">
       <c r="C58" s="33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D58" s="34">
         <v>1</v>
@@ -8558,7 +8575,7 @@
     </row>
     <row r="59" ht="13.5" spans="2:5">
       <c r="B59" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C59" s="36"/>
       <c r="D59" s="34"/>
@@ -8566,7 +8583,7 @@
     </row>
     <row r="60" ht="12.75" spans="3:5">
       <c r="C60" s="33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D60" s="34">
         <v>1</v>
@@ -8575,7 +8592,7 @@
     </row>
     <row r="61" ht="12.75" spans="3:5">
       <c r="C61" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D61" s="34">
         <v>1</v>
@@ -8584,7 +8601,7 @@
     </row>
     <row r="62" ht="12.75" spans="3:5">
       <c r="C62" s="33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D62" s="34">
         <v>1</v>
@@ -8593,7 +8610,7 @@
     </row>
     <row r="63" ht="13.5" spans="2:5">
       <c r="B63" s="36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C63" s="36"/>
       <c r="D63" s="34"/>
@@ -8601,35 +8618,35 @@
     </row>
     <row r="64" ht="12.75" spans="3:5">
       <c r="C64" s="33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D64" s="34"/>
       <c r="E64" s="38"/>
     </row>
     <row r="65" ht="12.75" spans="3:5">
       <c r="C65" s="33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D65" s="34"/>
       <c r="E65" s="38"/>
     </row>
     <row r="66" ht="12.75" spans="3:5">
       <c r="C66" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D66" s="34"/>
       <c r="E66" s="38"/>
     </row>
     <row r="67" ht="12.75" spans="3:5">
       <c r="C67" s="33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D67" s="34"/>
       <c r="E67" s="38"/>
     </row>
     <row r="68" ht="12.75" spans="3:5">
       <c r="C68" s="33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D68" s="34"/>
       <c r="E68" s="38"/>
@@ -8641,7 +8658,7 @@
     </row>
     <row r="70" ht="12.75" spans="3:6">
       <c r="C70" s="27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D70" s="27">
         <f>SUM(D2:D68)</f>
@@ -9033,19 +9050,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="3:3">
@@ -9202,13 +9219,13 @@
   <sheetData>
     <row r="1" customFormat="1" ht="17.25" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="2:3">

--- a/ドキュメント/(添付)Next.js ショッピングサイトデモ 作業ログ.xlsx
+++ b/ドキュメント/(添付)Next.js ショッピングサイトデモ 作業ログ.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
     <t>進捗</t>
   </si>
@@ -525,20 +525,6 @@
   </si>
   <si>
     <t>2-5　スタッフ一覧画面を作ろう！</t>
-  </si>
-  <si>
-    <r>
-      <t>81</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ページまでやった</t>
-    </r>
   </si>
   <si>
     <t>2-6　スタッフ情報の修正画面を作ろう！</t>
@@ -7986,7 +7972,7 @@
   <dimension ref="A1:F140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
@@ -8260,30 +8246,31 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" ht="12.75" spans="3:6">
+    <row r="24" ht="12.75" spans="3:5">
       <c r="C24" s="33" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="34">
         <v>1</v>
       </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="6" t="s">
-        <v>38</v>
+      <c r="E24" s="35">
+        <v>44134</v>
       </c>
     </row>
     <row r="25" spans="3:5">
       <c r="C25" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" s="34">
         <v>1</v>
       </c>
-      <c r="E25" s="35"/>
-    </row>
-    <row r="26" ht="12.75" spans="3:5">
+      <c r="E25" s="35">
+        <v>44135</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5">
       <c r="C26" s="33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" s="34">
         <v>1</v>
@@ -8292,7 +8279,7 @@
     </row>
     <row r="27" ht="12.75" spans="3:5">
       <c r="C27" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" s="34">
         <v>1</v>
@@ -8301,7 +8288,7 @@
     </row>
     <row r="28" ht="13.5" spans="2:5">
       <c r="B28" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="36"/>
       <c r="D28" s="29"/>
@@ -8309,7 +8296,7 @@
     </row>
     <row r="29" ht="12.75" spans="3:5">
       <c r="C29" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29" s="34">
         <v>1</v>
@@ -8318,7 +8305,7 @@
     </row>
     <row r="30" ht="12.75" spans="3:5">
       <c r="C30" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" s="34">
         <v>1</v>
@@ -8327,7 +8314,7 @@
     </row>
     <row r="31" ht="12.75" spans="3:5">
       <c r="C31" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31" s="34">
         <v>1</v>
@@ -8336,7 +8323,7 @@
     </row>
     <row r="32" ht="13.5" spans="2:5">
       <c r="B32" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="36"/>
       <c r="D32" s="34"/>
@@ -8344,7 +8331,7 @@
     </row>
     <row r="33" ht="12.75" spans="3:5">
       <c r="C33" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D33" s="34">
         <v>1</v>
@@ -8353,7 +8340,7 @@
     </row>
     <row r="34" ht="12.75" spans="3:5">
       <c r="C34" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D34" s="34">
         <v>1</v>
@@ -8362,7 +8349,7 @@
     </row>
     <row r="35" ht="12.75" spans="3:5">
       <c r="C35" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D35" s="34">
         <v>1</v>
@@ -8371,7 +8358,7 @@
     </row>
     <row r="36" ht="13.5" spans="2:5">
       <c r="B36" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" s="36"/>
       <c r="D36" s="34"/>
@@ -8379,7 +8366,7 @@
     </row>
     <row r="37" ht="12.75" spans="3:5">
       <c r="C37" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D37" s="34">
         <v>1</v>
@@ -8388,7 +8375,7 @@
     </row>
     <row r="38" ht="12.75" spans="3:5">
       <c r="C38" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D38" s="34">
         <v>1</v>
@@ -8397,7 +8384,7 @@
     </row>
     <row r="39" ht="12.75" spans="3:5">
       <c r="C39" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D39" s="34">
         <v>1</v>
@@ -8406,7 +8393,7 @@
     </row>
     <row r="40" ht="12.75" spans="3:5">
       <c r="C40" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D40" s="34">
         <v>1</v>
@@ -8415,7 +8402,7 @@
     </row>
     <row r="41" ht="12.75" spans="3:5">
       <c r="C41" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D41" s="34">
         <v>1</v>
@@ -8424,7 +8411,7 @@
     </row>
     <row r="42" ht="13.5" spans="2:5">
       <c r="B42" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" s="36"/>
       <c r="D42" s="34"/>
@@ -8432,7 +8419,7 @@
     </row>
     <row r="43" ht="12.75" spans="3:5">
       <c r="C43" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D43" s="34">
         <v>1</v>
@@ -8441,7 +8428,7 @@
     </row>
     <row r="44" ht="12.75" spans="3:5">
       <c r="C44" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D44" s="34">
         <v>1</v>
@@ -8450,7 +8437,7 @@
     </row>
     <row r="45" ht="12.75" spans="3:5">
       <c r="C45" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D45" s="34">
         <v>1</v>
@@ -8459,7 +8446,7 @@
     </row>
     <row r="46" ht="12.75" spans="3:5">
       <c r="C46" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D46" s="34">
         <v>1</v>
@@ -8468,7 +8455,7 @@
     </row>
     <row r="47" ht="12.75" spans="3:5">
       <c r="C47" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D47" s="34">
         <v>1</v>
@@ -8477,7 +8464,7 @@
     </row>
     <row r="48" ht="12.75" spans="3:5">
       <c r="C48" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D48" s="34">
         <v>1</v>
@@ -8486,7 +8473,7 @@
     </row>
     <row r="49" ht="12.75" spans="3:5">
       <c r="C49" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D49" s="34">
         <v>1</v>
@@ -8495,7 +8482,7 @@
     </row>
     <row r="50" ht="13.5" spans="2:5">
       <c r="B50" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C50" s="36"/>
       <c r="D50" s="34"/>
@@ -8503,7 +8490,7 @@
     </row>
     <row r="51" ht="12.75" spans="3:5">
       <c r="C51" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D51" s="34">
         <v>1</v>
@@ -8512,7 +8499,7 @@
     </row>
     <row r="52" ht="12.75" spans="3:5">
       <c r="C52" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D52" s="34">
         <v>1</v>
@@ -8521,7 +8508,7 @@
     </row>
     <row r="53" ht="12.75" spans="3:5">
       <c r="C53" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D53" s="34">
         <v>1</v>
@@ -8531,7 +8518,7 @@
     <row r="54" ht="12.75" spans="2:5">
       <c r="B54" s="27"/>
       <c r="C54" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D54" s="34">
         <v>1</v>
@@ -8540,7 +8527,7 @@
     </row>
     <row r="55" ht="12.75" spans="3:5">
       <c r="C55" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D55" s="34">
         <v>1</v>
@@ -8549,7 +8536,7 @@
     </row>
     <row r="56" ht="13.5" spans="2:5">
       <c r="B56" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C56" s="36"/>
       <c r="D56" s="34"/>
@@ -8557,7 +8544,7 @@
     </row>
     <row r="57" ht="12.75" spans="3:5">
       <c r="C57" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D57" s="34">
         <v>1</v>
@@ -8566,7 +8553,7 @@
     </row>
     <row r="58" ht="12.75" spans="3:5">
       <c r="C58" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D58" s="34">
         <v>1</v>
@@ -8575,7 +8562,7 @@
     </row>
     <row r="59" ht="13.5" spans="2:5">
       <c r="B59" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C59" s="36"/>
       <c r="D59" s="34"/>
@@ -8583,7 +8570,7 @@
     </row>
     <row r="60" ht="12.75" spans="3:5">
       <c r="C60" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D60" s="34">
         <v>1</v>
@@ -8592,7 +8579,7 @@
     </row>
     <row r="61" ht="12.75" spans="3:5">
       <c r="C61" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D61" s="34">
         <v>1</v>
@@ -8601,7 +8588,7 @@
     </row>
     <row r="62" ht="12.75" spans="3:5">
       <c r="C62" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D62" s="34">
         <v>1</v>
@@ -8610,7 +8597,7 @@
     </row>
     <row r="63" ht="13.5" spans="2:5">
       <c r="B63" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C63" s="36"/>
       <c r="D63" s="34"/>
@@ -8618,35 +8605,35 @@
     </row>
     <row r="64" ht="12.75" spans="3:5">
       <c r="C64" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D64" s="34"/>
       <c r="E64" s="38"/>
     </row>
     <row r="65" ht="12.75" spans="3:5">
       <c r="C65" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D65" s="34"/>
       <c r="E65" s="38"/>
     </row>
     <row r="66" ht="12.75" spans="3:5">
       <c r="C66" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D66" s="34"/>
       <c r="E66" s="38"/>
     </row>
     <row r="67" ht="12.75" spans="3:5">
       <c r="C67" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D67" s="34"/>
       <c r="E67" s="38"/>
     </row>
     <row r="68" ht="12.75" spans="3:5">
       <c r="C68" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D68" s="34"/>
       <c r="E68" s="38"/>
@@ -8658,7 +8645,7 @@
     </row>
     <row r="70" ht="12.75" spans="3:6">
       <c r="C70" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D70" s="27">
         <f>SUM(D2:D68)</f>
@@ -8666,11 +8653,11 @@
       </c>
       <c r="E70" s="27">
         <f>COUNTA(E2:E68)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F70" s="39">
         <f>E70/D70</f>
-        <v>0.333333333333333</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="71" ht="12.75" spans="3:5">
@@ -9050,19 +9037,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="3:3">
@@ -9219,13 +9206,13 @@
   <sheetData>
     <row r="1" customFormat="1" ht="17.25" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="2:3">

--- a/ドキュメント/(添付)Next.js ショッピングサイトデモ 作業ログ.xlsx
+++ b/ドキュメント/(添付)Next.js ショッピングサイトデモ 作業ログ.xlsx
@@ -7971,8 +7971,8 @@
   </sheetPr>
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
@@ -8268,14 +8268,16 @@
         <v>44135</v>
       </c>
     </row>
-    <row r="26" spans="3:5">
+    <row r="26" ht="12.75" spans="3:5">
       <c r="C26" s="33" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="34">
         <v>1</v>
       </c>
-      <c r="E26" s="35"/>
+      <c r="E26" s="35">
+        <v>44136</v>
+      </c>
     </row>
     <row r="27" ht="12.75" spans="3:5">
       <c r="C27" s="33" t="s">
@@ -8284,7 +8286,9 @@
       <c r="D27" s="34">
         <v>1</v>
       </c>
-      <c r="E27" s="35"/>
+      <c r="E27" s="35">
+        <v>44136</v>
+      </c>
     </row>
     <row r="28" ht="13.5" spans="2:5">
       <c r="B28" s="32" t="s">
@@ -8653,11 +8657,11 @@
       </c>
       <c r="E70" s="27">
         <f>COUNTA(E2:E68)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F70" s="39">
         <f>E70/D70</f>
-        <v>0.375</v>
+        <v>0.416666666666667</v>
       </c>
     </row>
     <row r="71" ht="12.75" spans="3:5">

--- a/ドキュメント/(添付)Next.js ショッピングサイトデモ 作業ログ.xlsx
+++ b/ドキュメント/(添付)Next.js ショッピングサイトデモ 作業ログ.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
   <si>
     <t>進捗</t>
   </si>
@@ -365,6 +365,12 @@
       </rPr>
       <t>$&gt;npm install sqlite sqlite3</t>
     </r>
+  </si>
+  <si>
+    <t>Next.js SSRとSSGとその使い方の調査</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getServerSideProps, getStaticProps, getStaticPaths </t>
   </si>
   <si>
     <t>VSCodeでデバッグ</t>
@@ -7969,10 +7975,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F140"/>
+  <dimension ref="A1:F141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
@@ -8072,7 +8078,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="30">
-        <v>44129</v>
+        <v>44128</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>18</v>
@@ -8088,37 +8094,42 @@
         <v>1</v>
       </c>
       <c r="E8" s="30">
-        <v>44130</v>
+        <v>44129</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" ht="12.75" spans="1:1">
-      <c r="A9" s="27" t="s">
+    <row r="9" customFormat="1" ht="12.75" spans="1:6">
+      <c r="A9" s="26"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" ht="13.5" spans="2:3">
-      <c r="B10" s="32" t="s">
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="30">
+        <v>44130</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="32"/>
-    </row>
-    <row r="11" ht="12.75" spans="3:5">
-      <c r="C11" s="33" t="s">
+    </row>
+    <row r="10" ht="12.75" spans="1:1">
+      <c r="A10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="34">
-        <v>1</v>
-      </c>
-      <c r="E11" s="30">
-        <v>44132</v>
-      </c>
+    </row>
+    <row r="11" ht="13.5" spans="2:3">
+      <c r="B11" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="32"/>
     </row>
     <row r="12" ht="12.75" spans="3:5">
       <c r="C12" s="33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="34">
         <v>1</v>
@@ -8127,28 +8138,28 @@
         <v>44132</v>
       </c>
     </row>
-    <row r="13" ht="13.5" spans="2:5">
-      <c r="B13" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-    </row>
-    <row r="14" ht="12.75" spans="3:5">
-      <c r="C14" s="33" t="s">
+    <row r="13" ht="12.75" spans="3:5">
+      <c r="C13" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D13" s="34">
         <v>1</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E13" s="30">
         <v>44132</v>
       </c>
+    </row>
+    <row r="14" ht="13.5" spans="2:5">
+      <c r="B14" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
     </row>
     <row r="15" ht="12.75" spans="3:5">
       <c r="C15" s="33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="34">
         <v>1</v>
@@ -8159,7 +8170,7 @@
     </row>
     <row r="16" ht="12.75" spans="3:5">
       <c r="C16" s="33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" s="34">
         <v>1</v>
@@ -8170,7 +8181,7 @@
     </row>
     <row r="17" ht="12.75" spans="3:5">
       <c r="C17" s="33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" s="34">
         <v>1</v>
@@ -8179,10 +8190,9 @@
         <v>44132</v>
       </c>
     </row>
-    <row r="18" ht="12.75" spans="2:5">
-      <c r="B18" s="27"/>
+    <row r="18" ht="12.75" spans="3:5">
       <c r="C18" s="33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18" s="34">
         <v>1</v>
@@ -8191,28 +8201,29 @@
         <v>44132</v>
       </c>
     </row>
-    <row r="19" ht="13.5" spans="2:5">
-      <c r="B19" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-    </row>
-    <row r="20" ht="12.75" spans="3:5">
-      <c r="C20" s="33" t="s">
+    <row r="19" ht="12.75" spans="2:5">
+      <c r="B19" s="27"/>
+      <c r="C19" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D19" s="34">
         <v>1</v>
       </c>
-      <c r="E20" s="30">
-        <v>44133</v>
-      </c>
+      <c r="E19" s="30">
+        <v>44132</v>
+      </c>
+    </row>
+    <row r="20" ht="13.5" spans="2:5">
+      <c r="B20" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="36"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
     </row>
     <row r="21" ht="12.75" spans="3:5">
       <c r="C21" s="33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" s="34">
         <v>1</v>
@@ -8223,7 +8234,7 @@
     </row>
     <row r="22" ht="12.75" spans="3:5">
       <c r="C22" s="33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D22" s="34">
         <v>1</v>
@@ -8232,9 +8243,9 @@
         <v>44133</v>
       </c>
     </row>
-    <row r="23" ht="12.75" spans="3:6">
+    <row r="23" ht="12.75" spans="3:5">
       <c r="C23" s="33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D23" s="34">
         <v>1</v>
@@ -8242,46 +8253,46 @@
       <c r="E23" s="30">
         <v>44133</v>
       </c>
-      <c r="F23" s="37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" ht="12.75" spans="3:5">
+    </row>
+    <row r="24" ht="12.75" spans="3:6">
       <c r="C24" s="33" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="34">
         <v>1</v>
       </c>
-      <c r="E24" s="35">
-        <v>44134</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5">
+      <c r="E24" s="30">
+        <v>44133</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" ht="12.75" spans="3:5">
       <c r="C25" s="33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D25" s="34">
         <v>1</v>
       </c>
       <c r="E25" s="35">
-        <v>44135</v>
-      </c>
-    </row>
-    <row r="26" ht="12.75" spans="3:5">
+        <v>44134</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5">
       <c r="C26" s="33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D26" s="34">
         <v>1</v>
       </c>
       <c r="E26" s="35">
-        <v>44136</v>
+        <v>44135</v>
       </c>
     </row>
     <row r="27" ht="12.75" spans="3:5">
       <c r="C27" s="33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D27" s="34">
         <v>1</v>
@@ -8290,61 +8301,65 @@
         <v>44136</v>
       </c>
     </row>
-    <row r="28" ht="13.5" spans="2:5">
-      <c r="B28" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-    </row>
-    <row r="29" ht="12.75" spans="3:5">
-      <c r="C29" s="33" t="s">
+    <row r="28" ht="12.75" spans="3:5">
+      <c r="C28" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="34">
+      <c r="D28" s="34">
         <v>1</v>
       </c>
-      <c r="E29" s="35"/>
-    </row>
-    <row r="30" ht="12.75" spans="3:5">
+      <c r="E28" s="35">
+        <v>44136</v>
+      </c>
+    </row>
+    <row r="29" ht="13.5" spans="2:5">
+      <c r="B29" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="36"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+    </row>
+    <row r="30" spans="3:5">
       <c r="C30" s="33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D30" s="34">
         <v>1</v>
       </c>
-      <c r="E30" s="35"/>
-    </row>
-    <row r="31" ht="12.75" spans="3:5">
+      <c r="E30" s="35">
+        <v>44137</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5">
       <c r="C31" s="33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D31" s="34">
         <v>1</v>
       </c>
       <c r="E31" s="35"/>
     </row>
-    <row r="32" ht="13.5" spans="2:5">
-      <c r="B32" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="34"/>
+    <row r="32" ht="12.75" spans="3:5">
+      <c r="C32" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="34">
+        <v>1</v>
+      </c>
       <c r="E32" s="35"/>
     </row>
-    <row r="33" ht="12.75" spans="3:5">
-      <c r="C33" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="34">
-        <v>1</v>
-      </c>
+    <row r="33" ht="13.5" spans="2:5">
+      <c r="B33" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="36"/>
+      <c r="D33" s="34"/>
       <c r="E33" s="35"/>
     </row>
     <row r="34" ht="12.75" spans="3:5">
       <c r="C34" s="33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D34" s="34">
         <v>1</v>
@@ -8353,33 +8368,33 @@
     </row>
     <row r="35" ht="12.75" spans="3:5">
       <c r="C35" s="33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D35" s="34">
         <v>1</v>
       </c>
       <c r="E35" s="35"/>
     </row>
-    <row r="36" ht="13.5" spans="2:5">
-      <c r="B36" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="34"/>
+    <row r="36" ht="12.75" spans="3:5">
+      <c r="C36" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="34">
+        <v>1</v>
+      </c>
       <c r="E36" s="35"/>
     </row>
-    <row r="37" ht="12.75" spans="3:5">
-      <c r="C37" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="34">
-        <v>1</v>
-      </c>
+    <row r="37" ht="13.5" spans="2:5">
+      <c r="B37" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="36"/>
+      <c r="D37" s="34"/>
       <c r="E37" s="35"/>
     </row>
     <row r="38" ht="12.75" spans="3:5">
       <c r="C38" s="33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D38" s="34">
         <v>1</v>
@@ -8388,7 +8403,7 @@
     </row>
     <row r="39" ht="12.75" spans="3:5">
       <c r="C39" s="33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D39" s="34">
         <v>1</v>
@@ -8397,7 +8412,7 @@
     </row>
     <row r="40" ht="12.75" spans="3:5">
       <c r="C40" s="33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D40" s="34">
         <v>1</v>
@@ -8406,33 +8421,33 @@
     </row>
     <row r="41" ht="12.75" spans="3:5">
       <c r="C41" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D41" s="34">
         <v>1</v>
       </c>
       <c r="E41" s="35"/>
     </row>
-    <row r="42" ht="13.5" spans="2:5">
-      <c r="B42" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="36"/>
-      <c r="D42" s="34"/>
+    <row r="42" ht="12.75" spans="3:5">
+      <c r="C42" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="34">
+        <v>1</v>
+      </c>
       <c r="E42" s="35"/>
     </row>
-    <row r="43" ht="12.75" spans="3:5">
-      <c r="C43" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="34">
-        <v>1</v>
-      </c>
+    <row r="43" ht="13.5" spans="2:5">
+      <c r="B43" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="36"/>
+      <c r="D43" s="34"/>
       <c r="E43" s="35"/>
     </row>
     <row r="44" ht="12.75" spans="3:5">
       <c r="C44" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D44" s="34">
         <v>1</v>
@@ -8441,7 +8456,7 @@
     </row>
     <row r="45" ht="12.75" spans="3:5">
       <c r="C45" s="33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D45" s="34">
         <v>1</v>
@@ -8450,7 +8465,7 @@
     </row>
     <row r="46" ht="12.75" spans="3:5">
       <c r="C46" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D46" s="34">
         <v>1</v>
@@ -8459,7 +8474,7 @@
     </row>
     <row r="47" ht="12.75" spans="3:5">
       <c r="C47" s="33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D47" s="34">
         <v>1</v>
@@ -8468,7 +8483,7 @@
     </row>
     <row r="48" ht="12.75" spans="3:5">
       <c r="C48" s="33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D48" s="34">
         <v>1</v>
@@ -8477,33 +8492,33 @@
     </row>
     <row r="49" ht="12.75" spans="3:5">
       <c r="C49" s="33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D49" s="34">
         <v>1</v>
       </c>
       <c r="E49" s="35"/>
     </row>
-    <row r="50" ht="13.5" spans="2:5">
-      <c r="B50" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="36"/>
-      <c r="D50" s="34"/>
+    <row r="50" ht="12.75" spans="3:5">
+      <c r="C50" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="34">
+        <v>1</v>
+      </c>
       <c r="E50" s="35"/>
     </row>
-    <row r="51" ht="12.75" spans="3:5">
-      <c r="C51" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D51" s="34">
-        <v>1</v>
-      </c>
+    <row r="51" ht="13.5" spans="2:5">
+      <c r="B51" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="36"/>
+      <c r="D51" s="34"/>
       <c r="E51" s="35"/>
     </row>
     <row r="52" ht="12.75" spans="3:5">
       <c r="C52" s="33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D52" s="34">
         <v>1</v>
@@ -8512,162 +8527,166 @@
     </row>
     <row r="53" ht="12.75" spans="3:5">
       <c r="C53" s="33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D53" s="34">
         <v>1</v>
       </c>
       <c r="E53" s="35"/>
     </row>
-    <row r="54" ht="12.75" spans="2:5">
-      <c r="B54" s="27"/>
+    <row r="54" ht="12.75" spans="3:5">
       <c r="C54" s="33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D54" s="34">
         <v>1</v>
       </c>
-      <c r="E54" s="29"/>
-    </row>
-    <row r="55" ht="12.75" spans="3:5">
+      <c r="E54" s="35"/>
+    </row>
+    <row r="55" ht="12.75" spans="2:5">
+      <c r="B55" s="27"/>
       <c r="C55" s="33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D55" s="34">
         <v>1</v>
       </c>
-      <c r="E55" s="35"/>
-    </row>
-    <row r="56" ht="13.5" spans="2:5">
-      <c r="B56" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" s="36"/>
-      <c r="D56" s="34"/>
+      <c r="E55" s="29"/>
+    </row>
+    <row r="56" ht="12.75" spans="3:5">
+      <c r="C56" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="34">
+        <v>1</v>
+      </c>
       <c r="E56" s="35"/>
     </row>
-    <row r="57" ht="12.75" spans="3:5">
-      <c r="C57" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D57" s="34">
-        <v>1</v>
-      </c>
+    <row r="57" ht="13.5" spans="2:5">
+      <c r="B57" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="36"/>
+      <c r="D57" s="34"/>
       <c r="E57" s="35"/>
     </row>
     <row r="58" ht="12.75" spans="3:5">
       <c r="C58" s="33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D58" s="34">
         <v>1</v>
       </c>
       <c r="E58" s="35"/>
     </row>
-    <row r="59" ht="13.5" spans="2:5">
-      <c r="B59" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C59" s="36"/>
-      <c r="D59" s="34"/>
+    <row r="59" ht="12.75" spans="3:5">
+      <c r="C59" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="34">
+        <v>1</v>
+      </c>
       <c r="E59" s="35"/>
     </row>
-    <row r="60" ht="12.75" spans="3:5">
-      <c r="C60" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D60" s="34">
-        <v>1</v>
-      </c>
+    <row r="60" ht="13.5" spans="2:5">
+      <c r="B60" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" s="36"/>
+      <c r="D60" s="34"/>
       <c r="E60" s="35"/>
     </row>
     <row r="61" ht="12.75" spans="3:5">
       <c r="C61" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D61" s="34">
         <v>1</v>
       </c>
-      <c r="E61" s="38"/>
+      <c r="E61" s="35"/>
     </row>
     <row r="62" ht="12.75" spans="3:5">
       <c r="C62" s="33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D62" s="34">
         <v>1</v>
       </c>
       <c r="E62" s="38"/>
     </row>
-    <row r="63" ht="13.5" spans="2:5">
-      <c r="B63" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="C63" s="36"/>
-      <c r="D63" s="34"/>
+    <row r="63" ht="12.75" spans="3:5">
+      <c r="C63" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" s="34">
+        <v>1</v>
+      </c>
       <c r="E63" s="38"/>
     </row>
-    <row r="64" ht="12.75" spans="3:5">
-      <c r="C64" s="33" t="s">
-        <v>77</v>
-      </c>
+    <row r="64" ht="13.5" spans="2:5">
+      <c r="B64" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" s="36"/>
       <c r="D64" s="34"/>
       <c r="E64" s="38"/>
     </row>
     <row r="65" ht="12.75" spans="3:5">
       <c r="C65" s="33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D65" s="34"/>
       <c r="E65" s="38"/>
     </row>
     <row r="66" ht="12.75" spans="3:5">
       <c r="C66" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D66" s="34"/>
       <c r="E66" s="38"/>
     </row>
     <row r="67" ht="12.75" spans="3:5">
       <c r="C67" s="33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D67" s="34"/>
       <c r="E67" s="38"/>
     </row>
     <row r="68" ht="12.75" spans="3:5">
       <c r="C68" s="33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D68" s="34"/>
       <c r="E68" s="38"/>
     </row>
     <row r="69" ht="12.75" spans="3:5">
-      <c r="C69" s="27"/>
+      <c r="C69" s="33" t="s">
+        <v>83</v>
+      </c>
       <c r="D69" s="34"/>
       <c r="E69" s="38"/>
     </row>
-    <row r="70" ht="12.75" spans="3:6">
-      <c r="C70" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D70" s="27">
-        <f>SUM(D2:D68)</f>
-        <v>48</v>
-      </c>
-      <c r="E70" s="27">
-        <f>COUNTA(E2:E68)</f>
-        <v>20</v>
-      </c>
-      <c r="F70" s="39">
-        <f>E70/D70</f>
-        <v>0.416666666666667</v>
-      </c>
-    </row>
-    <row r="71" ht="12.75" spans="3:5">
-      <c r="C71" s="27"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="38"/>
+    <row r="70" ht="12.75" spans="3:5">
+      <c r="C70" s="27"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="38"/>
+    </row>
+    <row r="71" ht="12.75" spans="3:6">
+      <c r="C71" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D71" s="27">
+        <f>SUM(D2:D69)</f>
+        <v>49</v>
+      </c>
+      <c r="E71" s="27">
+        <f>COUNTA(E2:E69)</f>
+        <v>22</v>
+      </c>
+      <c r="F71" s="39">
+        <f>E71/D71</f>
+        <v>0.448979591836735</v>
+      </c>
     </row>
     <row r="72" ht="12.75" spans="3:5">
       <c r="C72" s="27"/>
@@ -8709,15 +8728,15 @@
       <c r="D79" s="34"/>
       <c r="E79" s="38"/>
     </row>
-    <row r="80" ht="12.75" spans="2:5">
-      <c r="B80" s="40"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
-    </row>
-    <row r="81" ht="12.75" spans="3:5">
-      <c r="C81" s="27"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="38"/>
+    <row r="80" ht="12.75" spans="3:5">
+      <c r="C80" s="27"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="38"/>
+    </row>
+    <row r="81" ht="12.75" spans="2:5">
+      <c r="B81" s="40"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
     </row>
     <row r="82" ht="12.75" spans="3:5">
       <c r="C82" s="27"/>
@@ -8830,19 +8849,19 @@
       <c r="E103" s="38"/>
     </row>
     <row r="104" ht="12.75" spans="3:5">
-      <c r="C104" s="26"/>
+      <c r="C104" s="27"/>
       <c r="D104" s="34"/>
       <c r="E104" s="38"/>
     </row>
-    <row r="105" ht="12.75" spans="2:5">
-      <c r="B105" s="41"/>
-      <c r="D105" s="29"/>
-      <c r="E105" s="29"/>
-    </row>
-    <row r="106" ht="12.75" spans="3:5">
-      <c r="C106" s="27"/>
-      <c r="D106" s="34"/>
-      <c r="E106" s="38"/>
+    <row r="105" ht="12.75" spans="3:5">
+      <c r="C105" s="26"/>
+      <c r="D105" s="34"/>
+      <c r="E105" s="38"/>
+    </row>
+    <row r="106" ht="12.75" spans="2:5">
+      <c r="B106" s="41"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="29"/>
     </row>
     <row r="107" ht="12.75" spans="3:5">
       <c r="C107" s="27"/>
@@ -8885,19 +8904,19 @@
       <c r="E114" s="38"/>
     </row>
     <row r="115" ht="12.75" spans="3:5">
-      <c r="C115" s="42"/>
+      <c r="C115" s="27"/>
       <c r="D115" s="34"/>
       <c r="E115" s="38"/>
     </row>
-    <row r="116" ht="12.75" spans="2:5">
-      <c r="B116" s="41"/>
+    <row r="116" ht="12.75" spans="3:5">
+      <c r="C116" s="42"/>
       <c r="D116" s="34"/>
-      <c r="E116" s="29"/>
-    </row>
-    <row r="117" ht="12.75" spans="3:5">
-      <c r="C117" s="27"/>
+      <c r="E116" s="38"/>
+    </row>
+    <row r="117" ht="12.75" spans="2:5">
+      <c r="B117" s="41"/>
       <c r="D117" s="34"/>
-      <c r="E117" s="38"/>
+      <c r="E117" s="29"/>
     </row>
     <row r="118" ht="12.75" spans="3:5">
       <c r="C118" s="27"/>
@@ -8965,19 +8984,19 @@
       <c r="E130" s="38"/>
     </row>
     <row r="131" ht="12.75" spans="3:5">
-      <c r="C131" s="42"/>
+      <c r="C131" s="27"/>
       <c r="D131" s="34"/>
       <c r="E131" s="38"/>
     </row>
-    <row r="132" ht="12.75" spans="2:5">
-      <c r="B132" s="41"/>
-      <c r="D132" s="29"/>
-      <c r="E132" s="29"/>
-    </row>
-    <row r="133" ht="12.75" spans="3:5">
-      <c r="C133" s="27"/>
-      <c r="D133" s="34"/>
-      <c r="E133" s="38"/>
+    <row r="132" ht="12.75" spans="3:5">
+      <c r="C132" s="42"/>
+      <c r="D132" s="34"/>
+      <c r="E132" s="38"/>
+    </row>
+    <row r="133" ht="12.75" spans="2:5">
+      <c r="B133" s="41"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="29"/>
     </row>
     <row r="134" ht="12.75" spans="3:5">
       <c r="C134" s="27"/>
@@ -9010,9 +9029,14 @@
       <c r="E139" s="38"/>
     </row>
     <row r="140" ht="12.75" spans="3:5">
-      <c r="C140" s="41"/>
+      <c r="C140" s="27"/>
       <c r="D140" s="34"/>
       <c r="E140" s="38"/>
+    </row>
+    <row r="141" ht="12.75" spans="3:5">
+      <c r="C141" s="41"/>
+      <c r="D141" s="34"/>
+      <c r="E141" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9041,19 +9065,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="3:3">
@@ -9210,13 +9234,13 @@
   <sheetData>
     <row r="1" customFormat="1" ht="17.25" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="2:3">

--- a/ドキュメント/(添付)Next.js ショッピングサイトデモ 作業ログ.xlsx
+++ b/ドキュメント/(添付)Next.js ショッピングサイトデモ 作業ログ.xlsx
@@ -912,6 +912,64 @@
 [TITLE]: How to add Auth0 to Nextjs- the Ultimate Guide
 [URL]: https://www.codemochi.com/blog/2020-04-01-how-to-add-auth0-nextjs
 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>★</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[TITLE]: nextjs with typescript:29 SSR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CSR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cookie
+[URL]: https://note.com/fz5050/n/n13898d5acf21</t>
     </r>
     <rPh sb="0" eb="3">
       <t>サギョウチュウ</t>
@@ -7678,8 +7736,8 @@
   </sheetPr>
   <dimension ref="A1:F141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -8058,7 +8116,7 @@
       <c r="D33" s="33"/>
       <c r="E33" s="34"/>
     </row>
-    <row r="34" spans="2:6" ht="201.75">
+    <row r="34" spans="2:6" ht="227.25">
       <c r="C34" s="32" t="s">
         <v>50</v>
       </c>

--- a/ドキュメント/(添付)Next.js ショッピングサイトデモ 作業ログ.xlsx
+++ b/ドキュメント/(添付)Next.js ショッピングサイトデモ 作業ログ.xlsx
@@ -572,92 +572,18 @@
     <t>3-3　ワクワク♪　商品の画像を追加しましょう！</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ファイルアップロードを保留中
-参考サイト</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-TITLE: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>フレームワーク</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>機能</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ファイルアップロード</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-URL: https://github.com/xenophy/NextJS/wiki/%E3%83%95%E3%83%AC%E3%83%BC%E3%83%A0%E3%83%AF%E3%83%BC%E3%82%AF%E6%A9%9F%E8%83%BD---%E3%83%95%E3%82%A1%E3%82%A4%E3%83%AB%E3%82%A2%E3%83%83%E3%83%97%E3%83%AD%E3%83%BC%E3%83%89
+    <t xml:space="preserve">ファイルアップロードを保留中
+参考サイト
+[TITLE]: acync対応 multipart/form-data パーサー octet-stream/then-busboy
+[URL]: https://github.com/octet-stream/then-busboy
+ファイルリード／ライト
+[TITLE]: さよならStream
+[URL]: https://qiita.com/koh110/items/0fba3acbce38916928f1
+[TITLE]: nodejs v12(LTS)におけるasync, awaitを用いたstream処理
+[URL]: https://qiita.com/kaz2ngt/items/ef2617aab3ae3209d81e
+[TITLE]: Pipe between async iterators and streams. &lt;async-iterator-pipe&gt;
+[URL]: https://github.com/Qard/async-iterator-pipe#async-iterator-pipe
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>★</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TITLE: Increase supported file size for multipart/form-data #15745
-URL: https://github.com/vercel/next.js/discussions/15745</t>
-    </r>
   </si>
   <si>
     <t>Chapter 4　関係者以外立ち入り禁止！</t>
@@ -1050,6 +976,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1223,12 +1156,6 @@
       <sz val="10"/>
       <name val="SimSun"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ ゴシック"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1570,146 +1497,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1831,7 +1758,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1843,10 +1770,10 @@
     <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1889,7 +1816,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8269,8 +8196,8 @@
   </sheetPr>
   <dimension ref="A1:F141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
@@ -8617,7 +8544,7 @@
         <v>44137</v>
       </c>
     </row>
-    <row r="31" ht="12.75" spans="3:6">
+    <row r="31" spans="3:6">
       <c r="C31" s="33" t="s">
         <v>47</v>
       </c>
@@ -8629,7 +8556,7 @@
       </c>
       <c r="F31" s="40"/>
     </row>
-    <row r="32" ht="189.75" spans="3:6">
+    <row r="32" ht="255" spans="3:6">
       <c r="C32" s="33" t="s">
         <v>48</v>
       </c>

--- a/ドキュメント/(添付)Next.js ショッピングサイトデモ 作業ログ.xlsx
+++ b/ドキュメント/(添付)Next.js ショッピングサイトデモ 作業ログ.xlsx
@@ -1039,9 +1039,31 @@
     <phoneticPr fontId="23"/>
   </si>
   <si>
-    <t>対応中</t>
-    <rPh sb="0" eb="3">
-      <t>タイオウチュウ</t>
+    <t xml:space="preserve">WebDAV対応のリモートストレージで対応する
+◆リモートストレージを探すのに参考にしたサイト
+[TITLE]: 特殊な機能を持つ 無料 オンラインストレージ
+[URL]: http://free.arinco.org/storage/feature.html#direct
+◆採用したリモートストレージ
+[TITLE]: Koofr - One storage for all.
+[URL]: https://koofr.eu/
+◆npm webdav
+[TITLE]: webdav  -  npm
+[URL]: https://www.npmjs.com/package/webdav 
+</t>
+    <rPh sb="6" eb="8">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>サイヨウ</t>
     </rPh>
     <phoneticPr fontId="23"/>
   </si>
@@ -1051,7 +1073,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="&quot;進&quot;&quot;捗&quot;&quot;率&quot;\ 0.00%"/>
+    <numFmt numFmtId="176" formatCode="&quot;進&quot;&quot;捗&quot;&quot;率&quot;\ 0.00%"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1380,6 +1402,117 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1391,117 +1524,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1725,8 +1747,8 @@
   </sheetPr>
   <dimension ref="A1:F147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection sqref="A1:F77"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1739,958 +1761,958 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75">
-      <c r="A1" s="39"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="A1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="36" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="12.75">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="68"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="1:6" ht="12.75">
-      <c r="A3" s="42"/>
-      <c r="B3" s="45" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="43"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="38"/>
     </row>
     <row r="4" spans="1:6" ht="12.75">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="47" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="43">
-        <v>1</v>
-      </c>
-      <c r="E4" s="48">
+      <c r="D4" s="38">
+        <v>1</v>
+      </c>
+      <c r="E4" s="43">
         <v>44124</v>
       </c>
-      <c r="F4" s="43"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:6" ht="37.5">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="47" t="s">
+      <c r="A5" s="37"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="43">
-        <v>1</v>
-      </c>
-      <c r="E5" s="48">
+      <c r="D5" s="38">
+        <v>1</v>
+      </c>
+      <c r="E5" s="43">
         <v>44126</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="44" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="51">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="47" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="43">
-        <v>1</v>
-      </c>
-      <c r="E6" s="48">
+      <c r="D6" s="38">
+        <v>1</v>
+      </c>
+      <c r="E6" s="43">
         <v>44126</v>
       </c>
-      <c r="F6" s="61" t="s">
+      <c r="F6" s="56" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="12.75">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="47" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="43">
-        <v>1</v>
-      </c>
-      <c r="E7" s="48">
+      <c r="D7" s="38">
+        <v>1</v>
+      </c>
+      <c r="E7" s="43">
         <v>44128</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="45" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="47" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="43">
-        <v>1</v>
-      </c>
-      <c r="E8" s="48">
+      <c r="D8" s="38">
+        <v>1</v>
+      </c>
+      <c r="E8" s="43">
         <v>44129</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="45" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="12.75">
-      <c r="A9" s="42"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="47" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="43">
-        <v>1</v>
-      </c>
-      <c r="E9" s="48">
+      <c r="D9" s="38">
+        <v>1</v>
+      </c>
+      <c r="E9" s="43">
         <v>44130</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="45" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="12.75">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
     </row>
     <row r="11" spans="1:6" ht="13.5">
-      <c r="A11" s="43"/>
-      <c r="B11" s="51" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" spans="1:6" ht="12.75">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="52" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="53">
-        <v>1</v>
-      </c>
-      <c r="E12" s="48">
+      <c r="D12" s="48">
+        <v>1</v>
+      </c>
+      <c r="E12" s="43">
         <v>44132</v>
       </c>
-      <c r="F12" s="43"/>
+      <c r="F12" s="38"/>
     </row>
     <row r="13" spans="1:6" ht="12.75">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="52" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="53">
-        <v>1</v>
-      </c>
-      <c r="E13" s="48">
+      <c r="D13" s="48">
+        <v>1</v>
+      </c>
+      <c r="E13" s="43">
         <v>44132</v>
       </c>
-      <c r="F13" s="43"/>
+      <c r="F13" s="38"/>
     </row>
     <row r="14" spans="1:6" ht="13.5">
-      <c r="A14" s="43"/>
-      <c r="B14" s="51" t="s">
+      <c r="A14" s="38"/>
+      <c r="B14" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="43"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="38"/>
     </row>
     <row r="15" spans="1:6" ht="12.75">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="52" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="53">
-        <v>1</v>
-      </c>
-      <c r="E15" s="48">
+      <c r="D15" s="48">
+        <v>1</v>
+      </c>
+      <c r="E15" s="43">
         <v>44132</v>
       </c>
-      <c r="F15" s="43"/>
+      <c r="F15" s="38"/>
     </row>
     <row r="16" spans="1:6" ht="12.75">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="52" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="53">
-        <v>1</v>
-      </c>
-      <c r="E16" s="48">
+      <c r="D16" s="48">
+        <v>1</v>
+      </c>
+      <c r="E16" s="43">
         <v>44132</v>
       </c>
-      <c r="F16" s="43"/>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="1:6" ht="12.75">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="52" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="53">
-        <v>1</v>
-      </c>
-      <c r="E17" s="48">
+      <c r="D17" s="48">
+        <v>1</v>
+      </c>
+      <c r="E17" s="43">
         <v>44132</v>
       </c>
-      <c r="F17" s="43"/>
+      <c r="F17" s="38"/>
     </row>
     <row r="18" spans="1:6" ht="12.75">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="52" t="s">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="53">
-        <v>1</v>
-      </c>
-      <c r="E18" s="48">
+      <c r="D18" s="48">
+        <v>1</v>
+      </c>
+      <c r="E18" s="43">
         <v>44132</v>
       </c>
-      <c r="F18" s="43"/>
+      <c r="F18" s="38"/>
     </row>
     <row r="19" spans="1:6" ht="12.75">
-      <c r="A19" s="43"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="52" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="53">
-        <v>1</v>
-      </c>
-      <c r="E19" s="48">
+      <c r="D19" s="48">
+        <v>1</v>
+      </c>
+      <c r="E19" s="43">
         <v>44132</v>
       </c>
-      <c r="F19" s="43"/>
+      <c r="F19" s="38"/>
     </row>
     <row r="20" spans="1:6" ht="13.5">
-      <c r="A20" s="43"/>
-      <c r="B20" s="51" t="s">
+      <c r="A20" s="38"/>
+      <c r="B20" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="43"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="38"/>
     </row>
     <row r="21" spans="1:6" ht="12.75">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="52" t="s">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="53">
-        <v>1</v>
-      </c>
-      <c r="E21" s="48">
+      <c r="D21" s="48">
+        <v>1</v>
+      </c>
+      <c r="E21" s="43">
         <v>44133</v>
       </c>
-      <c r="F21" s="43"/>
+      <c r="F21" s="38"/>
     </row>
     <row r="22" spans="1:6" ht="12.75">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="52" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="53">
-        <v>1</v>
-      </c>
-      <c r="E22" s="48">
+      <c r="D22" s="48">
+        <v>1</v>
+      </c>
+      <c r="E22" s="43">
         <v>44133</v>
       </c>
-      <c r="F22" s="43"/>
+      <c r="F22" s="38"/>
     </row>
     <row r="23" spans="1:6" ht="12.75">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="52" t="s">
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="53">
-        <v>1</v>
-      </c>
-      <c r="E23" s="48">
+      <c r="D23" s="48">
+        <v>1</v>
+      </c>
+      <c r="E23" s="43">
         <v>44133</v>
       </c>
-      <c r="F23" s="43"/>
+      <c r="F23" s="38"/>
     </row>
     <row r="24" spans="1:6" ht="12.75">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="52" t="s">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="53">
-        <v>1</v>
-      </c>
-      <c r="E24" s="48">
+      <c r="D24" s="48">
+        <v>1</v>
+      </c>
+      <c r="E24" s="43">
         <v>44133</v>
       </c>
-      <c r="F24" s="56" t="s">
+      <c r="F24" s="51" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="36">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="52" t="s">
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="53">
-        <v>1</v>
-      </c>
-      <c r="E25" s="54">
+      <c r="D25" s="48">
+        <v>1</v>
+      </c>
+      <c r="E25" s="49">
         <v>44134</v>
       </c>
-      <c r="F25" s="57" t="s">
+      <c r="F25" s="52" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="12.75">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="52" t="s">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="53">
-        <v>1</v>
-      </c>
-      <c r="E26" s="54">
+      <c r="D26" s="48">
+        <v>1</v>
+      </c>
+      <c r="E26" s="49">
         <v>44135</v>
       </c>
-      <c r="F26" s="43"/>
+      <c r="F26" s="38"/>
     </row>
     <row r="27" spans="1:6" ht="12.75">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="52" t="s">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="53">
-        <v>1</v>
-      </c>
-      <c r="E27" s="54">
+      <c r="D27" s="48">
+        <v>1</v>
+      </c>
+      <c r="E27" s="49">
         <v>44136</v>
       </c>
-      <c r="F27" s="43"/>
+      <c r="F27" s="38"/>
     </row>
     <row r="28" spans="1:6" ht="108">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="52" t="s">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="53">
-        <v>1</v>
-      </c>
-      <c r="E28" s="54">
+      <c r="D28" s="48">
+        <v>1</v>
+      </c>
+      <c r="E28" s="49">
         <v>44136</v>
       </c>
-      <c r="F28" s="58" t="s">
+      <c r="F28" s="53" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="13.5">
-      <c r="A29" s="43"/>
-      <c r="B29" s="51" t="s">
+      <c r="A29" s="38"/>
+      <c r="B29" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="43"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="38"/>
     </row>
     <row r="30" spans="1:6" ht="12.75">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="52" t="s">
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="53">
-        <v>1</v>
-      </c>
-      <c r="E30" s="54">
+      <c r="D30" s="48">
+        <v>1</v>
+      </c>
+      <c r="E30" s="49">
         <v>44137</v>
       </c>
-      <c r="F30" s="43"/>
+      <c r="F30" s="38"/>
     </row>
     <row r="31" spans="1:6" ht="12.75">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="52" t="s">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="53">
-        <v>1</v>
-      </c>
-      <c r="E31" s="54">
+      <c r="D31" s="48">
+        <v>1</v>
+      </c>
+      <c r="E31" s="49">
         <v>44139</v>
       </c>
-      <c r="F31" s="59"/>
+      <c r="F31" s="54"/>
     </row>
     <row r="32" spans="1:6" ht="255">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="52" t="s">
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="53">
-        <v>1</v>
-      </c>
-      <c r="E32" s="54">
+      <c r="D32" s="48">
+        <v>1</v>
+      </c>
+      <c r="E32" s="49">
         <v>44144</v>
       </c>
-      <c r="F32" s="60" t="s">
+      <c r="F32" s="55" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="13.5">
-      <c r="A33" s="43"/>
-      <c r="B33" s="51" t="s">
+      <c r="A33" s="38"/>
+      <c r="B33" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="55"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="43"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="38"/>
     </row>
     <row r="34" spans="1:6" ht="203.25">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="52" t="s">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="53">
-        <v>1</v>
-      </c>
-      <c r="E34" s="54">
+      <c r="D34" s="48">
+        <v>1</v>
+      </c>
+      <c r="E34" s="49">
         <v>44142</v>
       </c>
-      <c r="F34" s="61" t="s">
+      <c r="F34" s="56" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="12.75">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="52" t="s">
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="53">
-        <v>1</v>
-      </c>
-      <c r="E35" s="54">
+      <c r="D35" s="48">
+        <v>1</v>
+      </c>
+      <c r="E35" s="49">
         <v>44142</v>
       </c>
-      <c r="F35" s="43"/>
+      <c r="F35" s="38"/>
     </row>
     <row r="36" spans="1:6" ht="12.75">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="52" t="s">
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="53">
-        <v>1</v>
-      </c>
-      <c r="E36" s="54">
+      <c r="D36" s="48">
+        <v>1</v>
+      </c>
+      <c r="E36" s="49">
         <v>44142</v>
       </c>
-      <c r="F36" s="43"/>
+      <c r="F36" s="38"/>
     </row>
     <row r="37" spans="1:6" ht="13.5">
-      <c r="A37" s="43"/>
-      <c r="B37" s="51" t="s">
+      <c r="A37" s="38"/>
+      <c r="B37" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="55"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="43"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="38"/>
     </row>
     <row r="38" spans="1:6" ht="12.75">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="52" t="s">
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="53">
-        <v>1</v>
-      </c>
-      <c r="E38" s="54">
+      <c r="D38" s="48">
+        <v>1</v>
+      </c>
+      <c r="E38" s="49">
         <v>44145</v>
       </c>
-      <c r="F38" s="43"/>
+      <c r="F38" s="38"/>
     </row>
     <row r="39" spans="1:6" ht="12.75">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="52" t="s">
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="53">
-        <v>1</v>
-      </c>
-      <c r="E39" s="54">
+      <c r="D39" s="48">
+        <v>1</v>
+      </c>
+      <c r="E39" s="49">
         <v>44145</v>
       </c>
-      <c r="F39" s="43"/>
+      <c r="F39" s="38"/>
     </row>
     <row r="40" spans="1:6" ht="12.75">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="52" t="s">
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="53">
-        <v>1</v>
-      </c>
-      <c r="E40" s="54">
+      <c r="D40" s="48">
+        <v>1</v>
+      </c>
+      <c r="E40" s="49">
         <v>44145</v>
       </c>
-      <c r="F40" s="43"/>
+      <c r="F40" s="38"/>
     </row>
     <row r="41" spans="1:6" ht="12.75">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="52" t="s">
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="53">
-        <v>1</v>
-      </c>
-      <c r="E41" s="54">
+      <c r="D41" s="48">
+        <v>1</v>
+      </c>
+      <c r="E41" s="49">
         <v>44145</v>
       </c>
-      <c r="F41" s="43"/>
+      <c r="F41" s="38"/>
     </row>
     <row r="42" spans="1:6" ht="12.75">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="52" t="s">
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="D42" s="53">
-        <v>1</v>
-      </c>
-      <c r="E42" s="54">
+      <c r="D42" s="48">
+        <v>1</v>
+      </c>
+      <c r="E42" s="49">
         <v>44145</v>
       </c>
-      <c r="F42" s="43"/>
+      <c r="F42" s="38"/>
     </row>
     <row r="43" spans="1:6" ht="13.5">
-      <c r="A43" s="43"/>
-      <c r="B43" s="51" t="s">
+      <c r="A43" s="38"/>
+      <c r="B43" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="55"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="43"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="38"/>
     </row>
     <row r="44" spans="1:6" ht="12.75">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="52" t="s">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="53">
-        <v>1</v>
-      </c>
-      <c r="E44" s="54"/>
-      <c r="F44" s="43"/>
+      <c r="D44" s="48">
+        <v>1</v>
+      </c>
+      <c r="E44" s="49"/>
+      <c r="F44" s="38"/>
     </row>
     <row r="45" spans="1:6" ht="12.75">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="52" t="s">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="53">
-        <v>1</v>
-      </c>
-      <c r="E45" s="54"/>
-      <c r="F45" s="43"/>
+      <c r="D45" s="48">
+        <v>1</v>
+      </c>
+      <c r="E45" s="49"/>
+      <c r="F45" s="38"/>
     </row>
     <row r="46" spans="1:6" ht="12.75">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="52" t="s">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="D46" s="53">
-        <v>1</v>
-      </c>
-      <c r="E46" s="54"/>
-      <c r="F46" s="43"/>
+      <c r="D46" s="48">
+        <v>1</v>
+      </c>
+      <c r="E46" s="49"/>
+      <c r="F46" s="38"/>
     </row>
     <row r="47" spans="1:6" ht="12.75">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="52" t="s">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="53">
-        <v>1</v>
-      </c>
-      <c r="E47" s="54"/>
-      <c r="F47" s="43"/>
+      <c r="D47" s="48">
+        <v>1</v>
+      </c>
+      <c r="E47" s="49"/>
+      <c r="F47" s="38"/>
     </row>
     <row r="48" spans="1:6" ht="12.75">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="52" t="s">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="53">
-        <v>1</v>
-      </c>
-      <c r="E48" s="54"/>
-      <c r="F48" s="43"/>
+      <c r="D48" s="48">
+        <v>1</v>
+      </c>
+      <c r="E48" s="49"/>
+      <c r="F48" s="38"/>
     </row>
     <row r="49" spans="1:6" ht="12.75">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="52" t="s">
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="53">
-        <v>1</v>
-      </c>
-      <c r="E49" s="54"/>
-      <c r="F49" s="43"/>
+      <c r="D49" s="48">
+        <v>1</v>
+      </c>
+      <c r="E49" s="49"/>
+      <c r="F49" s="38"/>
     </row>
     <row r="50" spans="1:6" ht="12.75">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="52" t="s">
+      <c r="A50" s="38"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="D50" s="53">
-        <v>1</v>
-      </c>
-      <c r="E50" s="54"/>
-      <c r="F50" s="43"/>
+      <c r="D50" s="48">
+        <v>1</v>
+      </c>
+      <c r="E50" s="49"/>
+      <c r="F50" s="38"/>
     </row>
     <row r="51" spans="1:6" ht="13.5">
-      <c r="A51" s="43"/>
-      <c r="B51" s="51" t="s">
+      <c r="A51" s="38"/>
+      <c r="B51" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="55"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="43"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="38"/>
     </row>
     <row r="52" spans="1:6" ht="12.75">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="52" t="s">
+      <c r="A52" s="38"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="D52" s="53">
-        <v>1</v>
-      </c>
-      <c r="E52" s="54"/>
-      <c r="F52" s="43"/>
+      <c r="D52" s="48">
+        <v>1</v>
+      </c>
+      <c r="E52" s="49"/>
+      <c r="F52" s="38"/>
     </row>
     <row r="53" spans="1:6" ht="12.75">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="52" t="s">
+      <c r="A53" s="38"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="D53" s="53">
-        <v>1</v>
-      </c>
-      <c r="E53" s="54"/>
-      <c r="F53" s="43"/>
+      <c r="D53" s="48">
+        <v>1</v>
+      </c>
+      <c r="E53" s="49"/>
+      <c r="F53" s="38"/>
     </row>
     <row r="54" spans="1:6" ht="12.75">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="52" t="s">
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="53">
-        <v>1</v>
-      </c>
-      <c r="E54" s="54"/>
-      <c r="F54" s="43"/>
+      <c r="D54" s="48">
+        <v>1</v>
+      </c>
+      <c r="E54" s="49"/>
+      <c r="F54" s="38"/>
     </row>
     <row r="55" spans="1:6" ht="12.75">
-      <c r="A55" s="43"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="52" t="s">
+      <c r="A55" s="38"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="D55" s="53">
-        <v>1</v>
-      </c>
-      <c r="E55" s="46"/>
-      <c r="F55" s="43"/>
+      <c r="D55" s="48">
+        <v>1</v>
+      </c>
+      <c r="E55" s="41"/>
+      <c r="F55" s="38"/>
     </row>
     <row r="56" spans="1:6" ht="12.75">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="52" t="s">
+      <c r="A56" s="38"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="53">
-        <v>1</v>
-      </c>
-      <c r="E56" s="54"/>
-      <c r="F56" s="43"/>
+      <c r="D56" s="48">
+        <v>1</v>
+      </c>
+      <c r="E56" s="49"/>
+      <c r="F56" s="38"/>
     </row>
     <row r="57" spans="1:6" ht="13.5">
-      <c r="A57" s="43"/>
-      <c r="B57" s="51" t="s">
+      <c r="A57" s="38"/>
+      <c r="B57" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="55"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="43"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="38"/>
     </row>
     <row r="58" spans="1:6" ht="12.75">
-      <c r="A58" s="43"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="52" t="s">
+      <c r="A58" s="38"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="D58" s="53">
-        <v>1</v>
-      </c>
-      <c r="E58" s="54"/>
-      <c r="F58" s="43"/>
+      <c r="D58" s="48">
+        <v>1</v>
+      </c>
+      <c r="E58" s="49"/>
+      <c r="F58" s="38"/>
     </row>
     <row r="59" spans="1:6" ht="12.75">
-      <c r="A59" s="43"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="52" t="s">
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="D59" s="53">
-        <v>1</v>
-      </c>
-      <c r="E59" s="54"/>
-      <c r="F59" s="43"/>
+      <c r="D59" s="48">
+        <v>1</v>
+      </c>
+      <c r="E59" s="49"/>
+      <c r="F59" s="38"/>
     </row>
     <row r="60" spans="1:6" ht="13.5">
-      <c r="A60" s="43"/>
-      <c r="B60" s="51" t="s">
+      <c r="A60" s="38"/>
+      <c r="B60" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C60" s="55"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="43"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="38"/>
     </row>
     <row r="61" spans="1:6" ht="12.75">
-      <c r="A61" s="43"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="52" t="s">
+      <c r="A61" s="38"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="D61" s="53">
-        <v>1</v>
-      </c>
-      <c r="E61" s="54"/>
-      <c r="F61" s="43"/>
+      <c r="D61" s="48">
+        <v>1</v>
+      </c>
+      <c r="E61" s="49"/>
+      <c r="F61" s="38"/>
     </row>
     <row r="62" spans="1:6" ht="12.75">
-      <c r="A62" s="43"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="52" t="s">
+      <c r="A62" s="38"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D62" s="53">
-        <v>1</v>
-      </c>
-      <c r="E62" s="62"/>
-      <c r="F62" s="43"/>
+      <c r="D62" s="48">
+        <v>1</v>
+      </c>
+      <c r="E62" s="57"/>
+      <c r="F62" s="38"/>
     </row>
     <row r="63" spans="1:6" ht="12.75">
-      <c r="A63" s="43"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="52" t="s">
+      <c r="A63" s="38"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="D63" s="53">
-        <v>1</v>
-      </c>
-      <c r="E63" s="62"/>
-      <c r="F63" s="43"/>
+      <c r="D63" s="48">
+        <v>1</v>
+      </c>
+      <c r="E63" s="57"/>
+      <c r="F63" s="38"/>
     </row>
     <row r="64" spans="1:6" ht="13.5">
-      <c r="A64" s="43"/>
-      <c r="B64" s="55" t="s">
+      <c r="A64" s="38"/>
+      <c r="B64" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C64" s="55"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="43"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="38"/>
     </row>
     <row r="65" spans="1:6" ht="12.75">
-      <c r="A65" s="43"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="52" t="s">
+      <c r="A65" s="38"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="D65" s="53"/>
-      <c r="E65" s="62"/>
-      <c r="F65" s="43"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="38"/>
     </row>
     <row r="66" spans="1:6" ht="12.75">
-      <c r="A66" s="43"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="52" t="s">
+      <c r="A66" s="38"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="D66" s="53"/>
-      <c r="E66" s="62"/>
-      <c r="F66" s="43"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="38"/>
     </row>
     <row r="67" spans="1:6" ht="12.75">
-      <c r="A67" s="43"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="52" t="s">
+      <c r="A67" s="38"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="D67" s="53"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="43"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="38"/>
     </row>
     <row r="68" spans="1:6" ht="12.75">
-      <c r="A68" s="43"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="52" t="s">
+      <c r="A68" s="38"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="D68" s="53"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="43"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="38"/>
     </row>
     <row r="69" spans="1:6" ht="12.75">
-      <c r="A69" s="43"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="52" t="s">
+      <c r="A69" s="38"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="D69" s="53"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="43"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="38"/>
     </row>
     <row r="70" spans="1:6" ht="12.75">
-      <c r="A70" s="67" t="s">
+      <c r="A70" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="B70" s="68"/>
-      <c r="C70" s="69"/>
-      <c r="D70" s="69"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="68"/>
+      <c r="B70" s="63"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="63"/>
     </row>
     <row r="71" spans="1:6" ht="12.75">
-      <c r="A71" s="63"/>
-      <c r="B71" s="64" t="s">
+      <c r="A71" s="58"/>
+      <c r="B71" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="C71" s="65"/>
-      <c r="D71" s="53"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="43"/>
+      <c r="C71" s="60"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="57"/>
+      <c r="F71" s="38"/>
     </row>
     <row r="72" spans="1:6" ht="25.5">
-      <c r="A72" s="63"/>
-      <c r="B72" s="46"/>
-      <c r="C72" s="66" t="s">
+      <c r="A72" s="58"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="D72" s="53">
-        <v>1</v>
-      </c>
-      <c r="E72" s="62">
+      <c r="D72" s="48">
+        <v>1</v>
+      </c>
+      <c r="E72" s="57">
         <v>44146</v>
       </c>
-      <c r="F72" s="50" t="s">
+      <c r="F72" s="45" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="63.75">
-      <c r="A73" s="63"/>
-      <c r="B73" s="46"/>
-      <c r="C73" s="66" t="s">
+      <c r="A73" s="58"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="D73" s="53">
-        <v>1</v>
-      </c>
-      <c r="E73" s="62">
+      <c r="D73" s="48">
+        <v>1</v>
+      </c>
+      <c r="E73" s="57">
         <v>44146</v>
       </c>
-      <c r="F73" s="50" t="s">
+      <c r="F73" s="45" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="63.75">
-      <c r="A74" s="63"/>
-      <c r="B74" s="46"/>
-      <c r="C74" s="66" t="s">
+      <c r="A74" s="58"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="D74" s="53">
-        <v>1</v>
-      </c>
-      <c r="E74" s="62">
+      <c r="D74" s="48">
+        <v>1</v>
+      </c>
+      <c r="E74" s="57">
         <v>44145</v>
       </c>
-      <c r="F74" s="50" t="s">
+      <c r="F74" s="45" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="12.75">
-      <c r="A75" s="63"/>
-      <c r="B75" s="46"/>
-      <c r="C75" s="66" t="s">
+    <row r="75" spans="1:6" ht="132">
+      <c r="A75" s="58"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="D75" s="53">
-        <v>1</v>
-      </c>
-      <c r="E75" s="62"/>
-      <c r="F75" s="72" t="s">
+      <c r="D75" s="48">
+        <v>1</v>
+      </c>
+      <c r="E75" s="57"/>
+      <c r="F75" s="67" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2702,18 +2724,18 @@
       <c r="E76" s="26"/>
     </row>
     <row r="77" spans="1:6" ht="12.75">
-      <c r="C77" s="37" t="s">
+      <c r="C77" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="D77" s="37">
+      <c r="D77" s="32">
         <f>SUM(D2:D75)</f>
         <v>53</v>
       </c>
-      <c r="E77" s="37">
+      <c r="E77" s="32">
         <f>COUNTA(E2:E75)</f>
         <v>35</v>
       </c>
-      <c r="F77" s="38">
+      <c r="F77" s="33">
         <f>E77/D77</f>
         <v>0.660377358490566</v>
       </c>
@@ -3169,16 +3191,16 @@
       <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:5" ht="24" customHeight="1">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="17"/>
-      <c r="D20" s="36"/>
+      <c r="D20" s="68"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="70"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="36"/>
+      <c r="D21" s="68"/>
     </row>
     <row r="22" spans="1:5">
       <c r="C22" s="12"/>
@@ -3193,28 +3215,28 @@
       <c r="C25" s="12"/>
     </row>
     <row r="26" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A26" s="32"/>
-      <c r="B26" s="34"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="71"/>
       <c r="C26" s="18"/>
-      <c r="D26" s="36"/>
+      <c r="D26" s="68"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="32"/>
-      <c r="B27" s="34"/>
+      <c r="A27" s="69"/>
+      <c r="B27" s="71"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="36"/>
+      <c r="D27" s="68"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="32"/>
-      <c r="B28" s="34"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="71"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="36"/>
+      <c r="D28" s="68"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="32"/>
-      <c r="B29" s="34"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="71"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="36"/>
+      <c r="D29" s="68"/>
     </row>
     <row r="30" spans="1:5">
       <c r="C30" s="12"/>
@@ -3234,18 +3256,18 @@
       <c r="C34" s="12"/>
     </row>
     <row r="35" spans="1:3" ht="27" customHeight="1">
-      <c r="A35" s="32"/>
-      <c r="B35" s="35"/>
+      <c r="A35" s="69"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="21"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="32"/>
-      <c r="B36" s="35"/>
+      <c r="A36" s="69"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="12"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="32"/>
-      <c r="B37" s="35"/>
+      <c r="A37" s="69"/>
+      <c r="B37" s="72"/>
       <c r="C37" s="12"/>
     </row>
     <row r="38" spans="1:3">

--- a/ドキュメント/(添付)Next.js ショッピングサイトデモ 作業ログ.xlsx
+++ b/ドキュメント/(添付)Next.js ショッピングサイトデモ 作業ログ.xlsx
@@ -1227,7 +1227,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1507,23 +1506,23 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1747,8 +1746,8 @@
   </sheetPr>
   <dimension ref="A1:F147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2711,8 +2710,10 @@
       <c r="D75" s="48">
         <v>1</v>
       </c>
-      <c r="E75" s="57"/>
-      <c r="F75" s="67" t="s">
+      <c r="E75" s="57">
+        <v>44155</v>
+      </c>
+      <c r="F75" s="72" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2733,11 +2734,11 @@
       </c>
       <c r="E77" s="32">
         <f>COUNTA(E2:E75)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F77" s="33">
         <f>E77/D77</f>
-        <v>0.660377358490566</v>
+        <v>0.67924528301886788</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="12.75">
@@ -3191,16 +3192,16 @@
       <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:5" ht="24" customHeight="1">
-      <c r="A20" s="69"/>
-      <c r="B20" s="70"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="69"/>
       <c r="C20" s="17"/>
-      <c r="D20" s="68"/>
+      <c r="D20" s="67"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="69"/>
-      <c r="B21" s="70"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="69"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="68"/>
+      <c r="D21" s="67"/>
     </row>
     <row r="22" spans="1:5">
       <c r="C22" s="12"/>
@@ -3215,28 +3216,28 @@
       <c r="C25" s="12"/>
     </row>
     <row r="26" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A26" s="69"/>
-      <c r="B26" s="71"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="70"/>
       <c r="C26" s="18"/>
-      <c r="D26" s="68"/>
+      <c r="D26" s="67"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="69"/>
-      <c r="B27" s="71"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="70"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="68"/>
+      <c r="D27" s="67"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="69"/>
-      <c r="B28" s="71"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="70"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="68"/>
+      <c r="D28" s="67"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="69"/>
-      <c r="B29" s="71"/>
+      <c r="A29" s="68"/>
+      <c r="B29" s="70"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="68"/>
+      <c r="D29" s="67"/>
     </row>
     <row r="30" spans="1:5">
       <c r="C30" s="12"/>
@@ -3256,18 +3257,18 @@
       <c r="C34" s="12"/>
     </row>
     <row r="35" spans="1:3" ht="27" customHeight="1">
-      <c r="A35" s="69"/>
-      <c r="B35" s="72"/>
+      <c r="A35" s="68"/>
+      <c r="B35" s="71"/>
       <c r="C35" s="21"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="69"/>
-      <c r="B36" s="72"/>
+      <c r="A36" s="68"/>
+      <c r="B36" s="71"/>
       <c r="C36" s="12"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="69"/>
-      <c r="B37" s="72"/>
+      <c r="A37" s="68"/>
+      <c r="B37" s="71"/>
       <c r="C37" s="12"/>
     </row>
     <row r="38" spans="1:3">

--- a/ドキュメント/(添付)Next.js ショッピングサイトデモ 作業ログ.xlsx
+++ b/ドキュメント/(添付)Next.js ショッピングサイトデモ 作業ログ.xlsx
@@ -1482,6 +1482,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1493,9 +1496,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1720,7 +1720,7 @@
   <dimension ref="A1:F147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2391,7 +2391,9 @@
       <c r="D49" s="40">
         <v>1</v>
       </c>
-      <c r="E49" s="41"/>
+      <c r="E49" s="41">
+        <v>44167</v>
+      </c>
       <c r="F49" s="32"/>
     </row>
     <row r="50" spans="1:6" ht="12.75">
@@ -2717,11 +2719,11 @@
       </c>
       <c r="E77" s="59">
         <f>COUNTA(E2:E75)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F77" s="60">
         <f>E77/D77</f>
-        <v>0.77358490566037741</v>
+        <v>0.79245283018867929</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="12.75">
@@ -3175,16 +3177,16 @@
       <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:5" ht="24" customHeight="1">
-      <c r="A20" s="65"/>
-      <c r="B20" s="66"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="17"/>
-      <c r="D20" s="69"/>
+      <c r="D20" s="65"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="65"/>
-      <c r="B21" s="66"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="69"/>
+      <c r="D21" s="65"/>
     </row>
     <row r="22" spans="1:5">
       <c r="C22" s="12"/>
@@ -3199,28 +3201,28 @@
       <c r="C25" s="12"/>
     </row>
     <row r="26" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A26" s="65"/>
-      <c r="B26" s="67"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="18"/>
-      <c r="D26" s="69"/>
+      <c r="D26" s="65"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="65"/>
-      <c r="B27" s="67"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="68"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="69"/>
+      <c r="D27" s="65"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="65"/>
-      <c r="B28" s="67"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="68"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="69"/>
+      <c r="D28" s="65"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="65"/>
-      <c r="B29" s="67"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="68"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="69"/>
+      <c r="D29" s="65"/>
     </row>
     <row r="30" spans="1:5">
       <c r="C30" s="12"/>
@@ -3240,18 +3242,18 @@
       <c r="C34" s="12"/>
     </row>
     <row r="35" spans="1:3" ht="27" customHeight="1">
-      <c r="A35" s="65"/>
-      <c r="B35" s="68"/>
+      <c r="A35" s="66"/>
+      <c r="B35" s="69"/>
       <c r="C35" s="21"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="65"/>
-      <c r="B36" s="68"/>
+      <c r="A36" s="66"/>
+      <c r="B36" s="69"/>
       <c r="C36" s="12"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="65"/>
-      <c r="B37" s="68"/>
+      <c r="A37" s="66"/>
+      <c r="B37" s="69"/>
       <c r="C37" s="12"/>
     </row>
     <row r="38" spans="1:3">
